--- a/excel-challenge/Part-1/4/2017_nba_season_stats_HW_Selimaj.xlsx
+++ b/excel-challenge/Part-1/4/2017_nba_season_stats_HW_Selimaj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elsel\Selimaj_GW_HW\excel-challenge\Part-1\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9232BE-F3F2-4A5D-B6E3-883D62B5ECB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67584C04-AE7D-40B0-B6D8-645353BE8D88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11890" yWindow="30" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017_nba_season_stats_HW_Selima" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="600">
   <si>
     <t>Year</t>
   </si>
@@ -1804,6 +1804,24 @@
   <si>
     <t>Upper 95.0%</t>
   </si>
+  <si>
+    <t>correlation coefficient</t>
+  </si>
+  <si>
+    <t>RxR=cofficient of determination</t>
+  </si>
+  <si>
+    <t>number of samples</t>
+  </si>
+  <si>
+    <t>precision of regretion</t>
+  </si>
+  <si>
+    <t>y=-80+0.5</t>
+  </si>
+  <si>
+    <t>P=value</t>
+  </si>
 </sst>
 </file>
 
@@ -2146,7 +2164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2296,6 +2314,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2341,7 +2374,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2359,6 +2392,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -91509,10 +91549,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -91538,13 +91578,19 @@
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B4" s="1">
         <v>0.90492126175962306</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -91553,6 +91599,12 @@
       <c r="B5" s="7">
         <v>0.81888248998462831</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -91561,6 +91613,12 @@
       <c r="B6" s="1">
         <v>0.81857706416672726</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -91569,6 +91627,10 @@
       <c r="B7" s="1">
         <v>200.24629073332065</v>
       </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -91577,6 +91639,12 @@
       <c r="B8" s="2">
         <v>595</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -91619,6 +91687,9 @@
       </c>
       <c r="F12" s="1">
         <v>3.4972580570812662E-222</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -91737,7 +91808,19 @@
         <v>0.52867980294676453</v>
       </c>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>